--- a/detailed_channel_info/SCN10A_RAT.xlsx
+++ b/detailed_channel_info/SCN10A_RAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>https://chopen.herokuapp.com/api/graph_data/179?format=json</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="176" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -698,7 +698,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -714,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -802,37 +802,37 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
